--- a/data-raw/scantron-data/survey-folders/That's Me/518-1wuphd210621.xlsx
+++ b/data-raw/scantron-data/survey-folders/That's Me/518-1wuphd210621.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\MNN Data and Evaluation\FY21\Statewide eval\Data\That's Me\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A804C7C-226D-43EC-A2E5-D250D350352F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="19140" windowHeight="7416"/>
+    <workbookView xWindow="2460" yWindow="1140" windowWidth="26520" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="518-1wuphd210621" sheetId="1" r:id="rId1"/>
@@ -121,9 +127,6 @@
     <t>518000001001062121001   5382     1    N</t>
   </si>
   <si>
-    <t>12-M-2-9</t>
-  </si>
-  <si>
     <t>518000002001062121001   5382     1    N</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>518000013001062121001   5382     1    N</t>
   </si>
   <si>
-    <t>12-M-2-7</t>
-  </si>
-  <si>
     <t>518000014001062121001   5382     1    N</t>
   </si>
   <si>
@@ -229,9 +229,6 @@
     <t>518000034001062121001   5382     1    N</t>
   </si>
   <si>
-    <t>12-M-2-10</t>
-  </si>
-  <si>
     <t>518000035001062121001   5382     1    N</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>518000056001062121001   5382     1    N</t>
   </si>
   <si>
-    <t>12-M-2-8</t>
-  </si>
-  <si>
     <t>518000057001062121001   5382     1    N</t>
   </si>
   <si>
@@ -392,12 +386,24 @@
   </si>
   <si>
     <t>MNNWUPHD-21-RFA</t>
+  </si>
+  <si>
+    <t>28-M-2-9</t>
+  </si>
+  <si>
+    <t>28-M-2-7</t>
+  </si>
+  <si>
+    <t>28-M-2-10</t>
+  </si>
+  <si>
+    <t>28-M-2-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -929,6 +935,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -976,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,9 +1018,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1044,6 +1070,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1219,16 +1262,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,18 +1375,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1436,18 +1479,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1540,18 +1583,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1644,18 +1687,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1748,18 +1791,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1852,18 +1895,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1956,18 +1999,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2057,18 +2100,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2161,18 +2204,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2265,18 +2308,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2366,18 +2409,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -2470,18 +2513,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -2571,18 +2614,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2675,18 +2718,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2779,32 +2822,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2891,18 +2934,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2995,35 +3038,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -3116,18 +3159,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -3220,18 +3263,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3324,18 +3367,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -3428,18 +3471,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -3532,18 +3575,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -3636,18 +3679,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3740,32 +3783,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -3858,18 +3901,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -3962,18 +4005,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -4066,18 +4109,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -4170,18 +4213,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -4262,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="AE32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF32">
         <v>1</v>
@@ -4274,18 +4317,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -4378,18 +4421,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -4482,18 +4525,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
         <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4583,18 +4626,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" t="s">
         <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>71</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -4687,18 +4730,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
         <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -4791,18 +4834,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
         <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" t="s">
-        <v>71</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -4883,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="AE38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4895,18 +4938,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" t="s">
         <v>124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>71</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -4999,18 +5042,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
         <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>71</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -5103,18 +5146,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
         <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>71</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -5207,18 +5250,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>71</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -5311,18 +5354,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>71</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -5415,18 +5458,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
         <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>71</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -5519,18 +5562,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -5623,18 +5666,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
         <v>124</v>
-      </c>
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -5727,18 +5770,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
         <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -5831,18 +5874,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
         <v>124</v>
-      </c>
-      <c r="C48" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" t="s">
-        <v>71</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -5935,18 +5978,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
         <v>124</v>
-      </c>
-      <c r="C49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" t="s">
-        <v>71</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -6039,18 +6082,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -6059,7 +6102,7 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -6089,7 +6132,7 @@
         <v>3</v>
       </c>
       <c r="Q50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R50">
         <v>2</v>
@@ -6143,32 +6186,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
         <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" t="s">
-        <v>71</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -6261,18 +6304,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" t="s">
         <v>124</v>
-      </c>
-      <c r="C53" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" t="s">
-        <v>71</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -6365,18 +6408,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
         <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" t="s">
-        <v>71</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -6469,18 +6512,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
         <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>71</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -6573,18 +6616,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
         <v>124</v>
-      </c>
-      <c r="C56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" t="s">
-        <v>71</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -6677,18 +6720,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
         <v>125</v>
-      </c>
-      <c r="D57" t="s">
-        <v>94</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -6781,18 +6824,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
         <v>125</v>
-      </c>
-      <c r="D58" t="s">
-        <v>94</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -6885,18 +6928,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
         <v>125</v>
-      </c>
-      <c r="D59" t="s">
-        <v>94</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -6986,21 +7029,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" t="s">
         <v>125</v>
       </c>
-      <c r="D60" t="s">
-        <v>94</v>
-      </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -7090,18 +7133,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
         <v>125</v>
-      </c>
-      <c r="D61" t="s">
-        <v>94</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -7194,18 +7237,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" t="s">
         <v>125</v>
-      </c>
-      <c r="D62" t="s">
-        <v>94</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -7298,18 +7341,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="s">
         <v>125</v>
-      </c>
-      <c r="D63" t="s">
-        <v>94</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -7402,18 +7445,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" t="s">
         <v>125</v>
-      </c>
-      <c r="D64" t="s">
-        <v>94</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -7506,18 +7549,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" t="s">
         <v>125</v>
-      </c>
-      <c r="D65" t="s">
-        <v>94</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -7610,18 +7653,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
         <v>125</v>
-      </c>
-      <c r="D66" t="s">
-        <v>94</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -7714,18 +7757,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" t="s">
         <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>94</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -7818,18 +7861,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" t="s">
         <v>125</v>
-      </c>
-      <c r="D68" t="s">
-        <v>94</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -7919,19 +7962,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" t="s">
         <v>125</v>
       </c>
-      <c r="D69" t="s">
-        <v>94</v>
-      </c>
       <c r="E69">
         <v>1</v>
       </c>
@@ -8017,24 +8060,24 @@
         <v>1</v>
       </c>
       <c r="AG69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH69">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" t="s">
         <v>125</v>
-      </c>
-      <c r="D70" t="s">
-        <v>94</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -8127,32 +8170,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" t="s">
         <v>125</v>
       </c>
-      <c r="D71" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" t="s">
         <v>125</v>
-      </c>
-      <c r="D72" t="s">
-        <v>94</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -8242,18 +8285,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" t="s">
         <v>125</v>
-      </c>
-      <c r="D73" t="s">
-        <v>94</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -8346,18 +8389,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
         <v>125</v>
-      </c>
-      <c r="D74" t="s">
-        <v>94</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -8450,18 +8493,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" t="s">
         <v>125</v>
-      </c>
-      <c r="D75" t="s">
-        <v>94</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -8554,18 +8597,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" t="s">
         <v>125</v>
-      </c>
-      <c r="D76" t="s">
-        <v>94</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -8655,18 +8698,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
         <v>125</v>
-      </c>
-      <c r="D77" t="s">
-        <v>94</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -8759,18 +8802,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -8863,18 +8906,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -8964,18 +9007,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -9062,18 +9105,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -9166,18 +9209,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -9270,18 +9313,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
         <v>120</v>
       </c>
-      <c r="B83" t="s">
-        <v>124</v>
-      </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -9374,18 +9417,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
         <v>121</v>
       </c>
-      <c r="B84" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" t="s">
-        <v>125</v>
-      </c>
       <c r="D84" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -9478,18 +9521,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
         <v>122</v>
-      </c>
-      <c r="B85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85" t="s">
-        <v>35</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -9582,18 +9625,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -9688,5 +9731,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>